--- a/natmiOut/OldD7/LR-pairs_lrc2p/Mdk-Itga6.xlsx
+++ b/natmiOut/OldD7/LR-pairs_lrc2p/Mdk-Itga6.xlsx
@@ -531,52 +531,52 @@
         <v>20</v>
       </c>
       <c r="E2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F2">
         <v>1</v>
       </c>
       <c r="G2">
-        <v>1.25267909965834</v>
+        <v>1.324023666666666</v>
       </c>
       <c r="H2">
-        <v>1.25267909965834</v>
+        <v>3.972071</v>
       </c>
       <c r="I2">
-        <v>0.01458991783974577</v>
+        <v>0.01518042398701374</v>
       </c>
       <c r="J2">
-        <v>0.01458991783974577</v>
+        <v>0.01518042398701374</v>
       </c>
       <c r="K2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L2">
         <v>1</v>
       </c>
       <c r="M2">
-        <v>188.08807288219</v>
+        <v>192.8285726666667</v>
       </c>
       <c r="N2">
-        <v>188.08807288219</v>
+        <v>578.485718</v>
       </c>
       <c r="O2">
-        <v>0.8202526854073616</v>
+        <v>0.7801188850698786</v>
       </c>
       <c r="P2">
-        <v>0.8202526854073616</v>
+        <v>0.7801188850698786</v>
       </c>
       <c r="Q2">
-        <v>235.613997794534</v>
+        <v>255.3095938202198</v>
       </c>
       <c r="R2">
-        <v>235.613997794534</v>
+        <v>2297.786344381978</v>
       </c>
       <c r="S2">
-        <v>0.01196741928792424</v>
+        <v>0.0118425354356372</v>
       </c>
       <c r="T2">
-        <v>0.01196741928792424</v>
+        <v>0.0118425354356372</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -593,52 +593,52 @@
         <v>21</v>
       </c>
       <c r="E3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F3">
         <v>1</v>
       </c>
       <c r="G3">
-        <v>1.25267909965834</v>
+        <v>1.324023666666666</v>
       </c>
       <c r="H3">
-        <v>1.25267909965834</v>
+        <v>3.972071</v>
       </c>
       <c r="I3">
-        <v>0.01458991783974577</v>
+        <v>0.01518042398701374</v>
       </c>
       <c r="J3">
-        <v>0.01458991783974577</v>
+        <v>0.01518042398701374</v>
       </c>
       <c r="K3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L3">
         <v>1</v>
       </c>
       <c r="M3">
-        <v>0.31010074912871</v>
+        <v>0.4209206666666667</v>
       </c>
       <c r="N3">
-        <v>0.31010074912871</v>
+        <v>1.262762</v>
       </c>
       <c r="O3">
-        <v>0.001352350355458101</v>
+        <v>0.001702901995496819</v>
       </c>
       <c r="P3">
-        <v>0.001352350355458101</v>
+        <v>0.001702901995496819</v>
       </c>
       <c r="Q3">
-        <v>0.3884567272219291</v>
+        <v>0.5573089244557777</v>
       </c>
       <c r="R3">
-        <v>0.3884567272219291</v>
+        <v>5.015780320102</v>
       </c>
       <c r="S3">
-        <v>1.973068057668469E-05</v>
+        <v>2.585077429997347E-05</v>
       </c>
       <c r="T3">
-        <v>1.973068057668469E-05</v>
+        <v>2.585077429997347E-05</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -655,52 +655,52 @@
         <v>22</v>
       </c>
       <c r="E4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F4">
         <v>1</v>
       </c>
       <c r="G4">
-        <v>1.25267909965834</v>
+        <v>1.324023666666666</v>
       </c>
       <c r="H4">
-        <v>1.25267909965834</v>
+        <v>3.972071</v>
       </c>
       <c r="I4">
-        <v>0.01458991783974577</v>
+        <v>0.01518042398701374</v>
       </c>
       <c r="J4">
-        <v>0.01458991783974577</v>
+        <v>0.01518042398701374</v>
       </c>
       <c r="K4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L4">
         <v>1</v>
       </c>
       <c r="M4">
-        <v>37.4554345475759</v>
+        <v>45.70525533333333</v>
       </c>
       <c r="N4">
-        <v>37.4554345475759</v>
+        <v>137.115766</v>
       </c>
       <c r="O4">
-        <v>0.1633432694586236</v>
+        <v>0.184907933193646</v>
       </c>
       <c r="P4">
-        <v>0.1633432694586236</v>
+        <v>0.184907933193646</v>
       </c>
       <c r="Q4">
-        <v>46.91964002636926</v>
+        <v>60.51483975237621</v>
       </c>
       <c r="R4">
-        <v>46.91964002636926</v>
+        <v>544.633557771386</v>
       </c>
       <c r="S4">
-        <v>0.002383164881076772</v>
+        <v>0.002806980824441958</v>
       </c>
       <c r="T4">
-        <v>0.002383164881076772</v>
+        <v>0.002806980824441958</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -717,52 +717,52 @@
         <v>23</v>
       </c>
       <c r="E5">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F5">
         <v>1</v>
       </c>
       <c r="G5">
-        <v>1.25267909965834</v>
+        <v>1.324023666666666</v>
       </c>
       <c r="H5">
-        <v>1.25267909965834</v>
+        <v>3.972071</v>
       </c>
       <c r="I5">
-        <v>0.01458991783974577</v>
+        <v>0.01518042398701374</v>
       </c>
       <c r="J5">
-        <v>0.01458991783974577</v>
+        <v>0.01518042398701374</v>
       </c>
       <c r="K5">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L5">
         <v>1</v>
       </c>
       <c r="M5">
-        <v>3.45142943738572</v>
+        <v>8.223696</v>
       </c>
       <c r="N5">
-        <v>3.45142943738572</v>
+        <v>24.671088</v>
       </c>
       <c r="O5">
-        <v>0.01505169477855673</v>
+        <v>0.0332702797409786</v>
       </c>
       <c r="P5">
-        <v>0.01505169477855673</v>
+        <v>0.0332702797409786</v>
       </c>
       <c r="Q5">
-        <v>4.323533520158635</v>
+        <v>10.888368131472</v>
       </c>
       <c r="R5">
-        <v>4.323533520158635</v>
+        <v>97.995313183248</v>
       </c>
       <c r="S5">
-        <v>0.000219602990168073</v>
+        <v>0.0005050569526346088</v>
       </c>
       <c r="T5">
-        <v>0.000219602990168073</v>
+        <v>0.0005050569526346087</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -779,52 +779,52 @@
         <v>20</v>
       </c>
       <c r="E6">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F6">
         <v>1</v>
       </c>
       <c r="G6">
-        <v>80.0823512563625</v>
+        <v>81.17653533333333</v>
       </c>
       <c r="H6">
-        <v>80.0823512563625</v>
+        <v>243.529606</v>
       </c>
       <c r="I6">
-        <v>0.9327168670433332</v>
+        <v>0.9307191821270077</v>
       </c>
       <c r="J6">
-        <v>0.9327168670433332</v>
+        <v>0.9307191821270075</v>
       </c>
       <c r="K6">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L6">
         <v>1</v>
       </c>
       <c r="M6">
-        <v>188.08807288219</v>
+        <v>192.8285726666667</v>
       </c>
       <c r="N6">
-        <v>188.08807288219</v>
+        <v>578.485718</v>
       </c>
       <c r="O6">
-        <v>0.8202526854073616</v>
+        <v>0.7801188850698786</v>
       </c>
       <c r="P6">
-        <v>0.8202526854073616</v>
+        <v>0.7801188850698786</v>
       </c>
       <c r="Q6">
-        <v>15062.53511968385</v>
+        <v>15653.1554423519</v>
       </c>
       <c r="R6">
-        <v>15062.53511968385</v>
+        <v>140878.3989811671</v>
       </c>
       <c r="S6">
-        <v>0.7650635149170352</v>
+        <v>0.7260716106740704</v>
       </c>
       <c r="T6">
-        <v>0.7650635149170352</v>
+        <v>0.7260716106740704</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -841,52 +841,52 @@
         <v>21</v>
       </c>
       <c r="E7">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F7">
         <v>1</v>
       </c>
       <c r="G7">
-        <v>80.0823512563625</v>
+        <v>81.17653533333333</v>
       </c>
       <c r="H7">
-        <v>80.0823512563625</v>
+        <v>243.529606</v>
       </c>
       <c r="I7">
-        <v>0.9327168670433332</v>
+        <v>0.9307191821270077</v>
       </c>
       <c r="J7">
-        <v>0.9327168670433332</v>
+        <v>0.9307191821270075</v>
       </c>
       <c r="K7">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L7">
         <v>1</v>
       </c>
       <c r="M7">
-        <v>0.31010074912871</v>
+        <v>0.4209206666666667</v>
       </c>
       <c r="N7">
-        <v>0.31010074912871</v>
+        <v>1.262762</v>
       </c>
       <c r="O7">
-        <v>0.001352350355458101</v>
+        <v>0.001702901995496819</v>
       </c>
       <c r="P7">
-        <v>0.001352350355458101</v>
+        <v>0.001702901995496819</v>
       </c>
       <c r="Q7">
-        <v>24.8335971165865</v>
+        <v>34.16888137019689</v>
       </c>
       <c r="R7">
-        <v>24.8335971165865</v>
+        <v>307.5199323317721</v>
       </c>
       <c r="S7">
-        <v>0.001261359986687818</v>
+        <v>0.001584923552491249</v>
       </c>
       <c r="T7">
-        <v>0.001261359986687818</v>
+        <v>0.001584923552491248</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -903,52 +903,52 @@
         <v>22</v>
       </c>
       <c r="E8">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F8">
         <v>1</v>
       </c>
       <c r="G8">
-        <v>80.0823512563625</v>
+        <v>81.17653533333333</v>
       </c>
       <c r="H8">
-        <v>80.0823512563625</v>
+        <v>243.529606</v>
       </c>
       <c r="I8">
-        <v>0.9327168670433332</v>
+        <v>0.9307191821270077</v>
       </c>
       <c r="J8">
-        <v>0.9327168670433332</v>
+        <v>0.9307191821270075</v>
       </c>
       <c r="K8">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L8">
         <v>1</v>
       </c>
       <c r="M8">
-        <v>37.4554345475759</v>
+        <v>45.70525533333333</v>
       </c>
       <c r="N8">
-        <v>37.4554345475759</v>
+        <v>137.115766</v>
       </c>
       <c r="O8">
-        <v>0.1633432694586236</v>
+        <v>0.184907933193646</v>
       </c>
       <c r="P8">
-        <v>0.1633432694586236</v>
+        <v>0.184907933193646</v>
       </c>
       <c r="Q8">
-        <v>2999.519265898668</v>
+        <v>3710.194274485355</v>
       </c>
       <c r="R8">
-        <v>2999.519265898668</v>
+        <v>33391.7484703682</v>
       </c>
       <c r="S8">
-        <v>0.1523530225420624</v>
+        <v>0.1720973603507856</v>
       </c>
       <c r="T8">
-        <v>0.1523530225420624</v>
+        <v>0.1720973603507856</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -965,52 +965,52 @@
         <v>23</v>
       </c>
       <c r="E9">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F9">
         <v>1</v>
       </c>
       <c r="G9">
-        <v>80.0823512563625</v>
+        <v>81.17653533333333</v>
       </c>
       <c r="H9">
-        <v>80.0823512563625</v>
+        <v>243.529606</v>
       </c>
       <c r="I9">
-        <v>0.9327168670433332</v>
+        <v>0.9307191821270077</v>
       </c>
       <c r="J9">
-        <v>0.9327168670433332</v>
+        <v>0.9307191821270075</v>
       </c>
       <c r="K9">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L9">
         <v>1</v>
       </c>
       <c r="M9">
-        <v>3.45142943738572</v>
+        <v>8.223696</v>
       </c>
       <c r="N9">
-        <v>3.45142943738572</v>
+        <v>24.671088</v>
       </c>
       <c r="O9">
-        <v>0.01505169477855673</v>
+        <v>0.0332702797409786</v>
       </c>
       <c r="P9">
-        <v>0.01505169477855673</v>
+        <v>0.0332702797409786</v>
       </c>
       <c r="Q9">
-        <v>276.3985845412728</v>
+        <v>667.5711489145921</v>
       </c>
       <c r="R9">
-        <v>276.3985845412728</v>
+        <v>6008.140340231328</v>
       </c>
       <c r="S9">
-        <v>0.01403896959754793</v>
+        <v>0.03096528754966036</v>
       </c>
       <c r="T9">
-        <v>0.01403896959754793</v>
+        <v>0.03096528754966035</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1027,52 +1027,52 @@
         <v>20</v>
       </c>
       <c r="E10">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F10">
         <v>1</v>
       </c>
       <c r="G10">
-        <v>1.12026610726167</v>
+        <v>1.192675</v>
       </c>
       <c r="H10">
-        <v>1.12026610726167</v>
+        <v>3.578025</v>
       </c>
       <c r="I10">
-        <v>0.01304770748394977</v>
+        <v>0.0136744626508778</v>
       </c>
       <c r="J10">
-        <v>0.01304770748394977</v>
+        <v>0.0136744626508778</v>
       </c>
       <c r="K10">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L10">
         <v>1</v>
       </c>
       <c r="M10">
-        <v>188.08807288219</v>
+        <v>192.8285726666667</v>
       </c>
       <c r="N10">
-        <v>188.08807288219</v>
+        <v>578.485718</v>
       </c>
       <c r="O10">
-        <v>0.8202526854073616</v>
+        <v>0.7801188850698786</v>
       </c>
       <c r="P10">
-        <v>0.8202526854073616</v>
+        <v>0.7801188850698786</v>
       </c>
       <c r="Q10">
-        <v>210.7086932300803</v>
+        <v>229.9818179052167</v>
       </c>
       <c r="R10">
-        <v>210.7086932300803</v>
+        <v>2069.83636114695</v>
       </c>
       <c r="S10">
-        <v>0.01070241710211953</v>
+        <v>0.01066770655713249</v>
       </c>
       <c r="T10">
-        <v>0.01070241710211953</v>
+        <v>0.01066770655713249</v>
       </c>
     </row>
     <row r="11" spans="1:20">
@@ -1089,52 +1089,52 @@
         <v>21</v>
       </c>
       <c r="E11">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F11">
         <v>1</v>
       </c>
       <c r="G11">
-        <v>1.12026610726167</v>
+        <v>1.192675</v>
       </c>
       <c r="H11">
-        <v>1.12026610726167</v>
+        <v>3.578025</v>
       </c>
       <c r="I11">
-        <v>0.01304770748394977</v>
+        <v>0.0136744626508778</v>
       </c>
       <c r="J11">
-        <v>0.01304770748394977</v>
+        <v>0.0136744626508778</v>
       </c>
       <c r="K11">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L11">
         <v>1</v>
       </c>
       <c r="M11">
-        <v>0.31010074912871</v>
+        <v>0.4209206666666667</v>
       </c>
       <c r="N11">
-        <v>0.31010074912871</v>
+        <v>1.262762</v>
       </c>
       <c r="O11">
-        <v>0.001352350355458101</v>
+        <v>0.001702901995496819</v>
       </c>
       <c r="P11">
-        <v>0.001352350355458101</v>
+        <v>0.001702901995496819</v>
       </c>
       <c r="Q11">
-        <v>0.3473953590853476</v>
+        <v>0.5020215561166668</v>
       </c>
       <c r="R11">
-        <v>0.3473953590853476</v>
+        <v>4.518194005050001</v>
       </c>
       <c r="S11">
-        <v>1.76450718538328E-05</v>
+        <v>2.328626973552653E-05</v>
       </c>
       <c r="T11">
-        <v>1.76450718538328E-05</v>
+        <v>2.328626973552653E-05</v>
       </c>
     </row>
     <row r="12" spans="1:20">
@@ -1151,52 +1151,52 @@
         <v>22</v>
       </c>
       <c r="E12">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F12">
         <v>1</v>
       </c>
       <c r="G12">
-        <v>1.12026610726167</v>
+        <v>1.192675</v>
       </c>
       <c r="H12">
-        <v>1.12026610726167</v>
+        <v>3.578025</v>
       </c>
       <c r="I12">
-        <v>0.01304770748394977</v>
+        <v>0.0136744626508778</v>
       </c>
       <c r="J12">
-        <v>0.01304770748394977</v>
+        <v>0.0136744626508778</v>
       </c>
       <c r="K12">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L12">
         <v>1</v>
       </c>
       <c r="M12">
-        <v>37.4554345475759</v>
+        <v>45.70525533333333</v>
       </c>
       <c r="N12">
-        <v>37.4554345475759</v>
+        <v>137.115766</v>
       </c>
       <c r="O12">
-        <v>0.1633432694586236</v>
+        <v>0.184907933193646</v>
       </c>
       <c r="P12">
-        <v>0.1633432694586236</v>
+        <v>0.184907933193646</v>
       </c>
       <c r="Q12">
-        <v>41.96005385640712</v>
+        <v>54.51151540468334</v>
       </c>
       <c r="R12">
-        <v>41.96005385640712</v>
+        <v>490.6036386421501</v>
       </c>
       <c r="S12">
-        <v>0.002131255199368107</v>
+        <v>0.002528516626307521</v>
       </c>
       <c r="T12">
-        <v>0.002131255199368107</v>
+        <v>0.00252851662630752</v>
       </c>
     </row>
     <row r="13" spans="1:20">
@@ -1213,52 +1213,52 @@
         <v>23</v>
       </c>
       <c r="E13">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F13">
         <v>1</v>
       </c>
       <c r="G13">
-        <v>1.12026610726167</v>
+        <v>1.192675</v>
       </c>
       <c r="H13">
-        <v>1.12026610726167</v>
+        <v>3.578025</v>
       </c>
       <c r="I13">
-        <v>0.01304770748394977</v>
+        <v>0.0136744626508778</v>
       </c>
       <c r="J13">
-        <v>0.01304770748394977</v>
+        <v>0.0136744626508778</v>
       </c>
       <c r="K13">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L13">
         <v>1</v>
       </c>
       <c r="M13">
-        <v>3.45142943738572</v>
+        <v>8.223696</v>
       </c>
       <c r="N13">
-        <v>3.45142943738572</v>
+        <v>24.671088</v>
       </c>
       <c r="O13">
-        <v>0.01505169477855673</v>
+        <v>0.0332702797409786</v>
       </c>
       <c r="P13">
-        <v>0.01505169477855673</v>
+        <v>0.0332702797409786</v>
       </c>
       <c r="Q13">
-        <v>3.866519420308436</v>
+        <v>9.808196626800001</v>
       </c>
       <c r="R13">
-        <v>3.866519420308436</v>
+        <v>88.2737696412</v>
       </c>
       <c r="S13">
-        <v>0.0001963901106083023</v>
+        <v>0.0004549531977022684</v>
       </c>
       <c r="T13">
-        <v>0.0001963901106083023</v>
+        <v>0.0004549531977022682</v>
       </c>
     </row>
     <row r="14" spans="1:20">
@@ -1275,52 +1275,52 @@
         <v>20</v>
       </c>
       <c r="E14">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F14">
         <v>1</v>
       </c>
       <c r="G14">
-        <v>3.40393272619235</v>
+        <v>3.525915333333334</v>
       </c>
       <c r="H14">
-        <v>3.40393272619235</v>
+        <v>10.577746</v>
       </c>
       <c r="I14">
-        <v>0.03964550763297121</v>
+        <v>0.04042593123510095</v>
       </c>
       <c r="J14">
-        <v>0.03964550763297121</v>
+        <v>0.04042593123510094</v>
       </c>
       <c r="K14">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L14">
         <v>1</v>
       </c>
       <c r="M14">
-        <v>188.08807288219</v>
+        <v>192.8285726666667</v>
       </c>
       <c r="N14">
-        <v>188.08807288219</v>
+        <v>578.485718</v>
       </c>
       <c r="O14">
-        <v>0.8202526854073616</v>
+        <v>0.7801188850698786</v>
       </c>
       <c r="P14">
-        <v>0.8202526854073616</v>
+        <v>0.7801188850698786</v>
       </c>
       <c r="Q14">
-        <v>640.2391466901385</v>
+        <v>679.897221070181</v>
       </c>
       <c r="R14">
-        <v>640.2391466901385</v>
+        <v>6119.074989631629</v>
       </c>
       <c r="S14">
-        <v>0.03251933410028268</v>
+        <v>0.03153703240303853</v>
       </c>
       <c r="T14">
-        <v>0.03251933410028268</v>
+        <v>0.03153703240303853</v>
       </c>
     </row>
     <row r="15" spans="1:20">
@@ -1337,52 +1337,52 @@
         <v>21</v>
       </c>
       <c r="E15">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F15">
         <v>1</v>
       </c>
       <c r="G15">
-        <v>3.40393272619235</v>
+        <v>3.525915333333334</v>
       </c>
       <c r="H15">
-        <v>3.40393272619235</v>
+        <v>10.577746</v>
       </c>
       <c r="I15">
-        <v>0.03964550763297121</v>
+        <v>0.04042593123510095</v>
       </c>
       <c r="J15">
-        <v>0.03964550763297121</v>
+        <v>0.04042593123510094</v>
       </c>
       <c r="K15">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L15">
         <v>1</v>
       </c>
       <c r="M15">
-        <v>0.31010074912871</v>
+        <v>0.4209206666666667</v>
       </c>
       <c r="N15">
-        <v>0.31010074912871</v>
+        <v>1.262762</v>
       </c>
       <c r="O15">
-        <v>0.001352350355458101</v>
+        <v>0.001702901995496819</v>
       </c>
       <c r="P15">
-        <v>0.001352350355458101</v>
+        <v>0.001702901995496819</v>
       </c>
       <c r="Q15">
-        <v>1.05556208837598</v>
+        <v>1.484130632716889</v>
       </c>
       <c r="R15">
-        <v>1.05556208837598</v>
+        <v>13.357175694452</v>
       </c>
       <c r="S15">
-        <v>5.361461633976548E-05</v>
+        <v>6.884139897007059E-05</v>
       </c>
       <c r="T15">
-        <v>5.361461633976548E-05</v>
+        <v>6.884139897007058E-05</v>
       </c>
     </row>
     <row r="16" spans="1:20">
@@ -1399,52 +1399,52 @@
         <v>22</v>
       </c>
       <c r="E16">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F16">
         <v>1</v>
       </c>
       <c r="G16">
-        <v>3.40393272619235</v>
+        <v>3.525915333333334</v>
       </c>
       <c r="H16">
-        <v>3.40393272619235</v>
+        <v>10.577746</v>
       </c>
       <c r="I16">
-        <v>0.03964550763297121</v>
+        <v>0.04042593123510095</v>
       </c>
       <c r="J16">
-        <v>0.03964550763297121</v>
+        <v>0.04042593123510094</v>
       </c>
       <c r="K16">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L16">
         <v>1</v>
       </c>
       <c r="M16">
-        <v>37.4554345475759</v>
+        <v>45.70525533333333</v>
       </c>
       <c r="N16">
-        <v>37.4554345475759</v>
+        <v>137.115766</v>
       </c>
       <c r="O16">
-        <v>0.1633432694586236</v>
+        <v>0.184907933193646</v>
       </c>
       <c r="P16">
-        <v>0.1633432694586236</v>
+        <v>0.184907933193646</v>
       </c>
       <c r="Q16">
-        <v>127.4957794302492</v>
+        <v>161.1528605937151</v>
       </c>
       <c r="R16">
-        <v>127.4957794302492</v>
+        <v>1450.375745343436</v>
       </c>
       <c r="S16">
-        <v>0.006475826836116335</v>
+        <v>0.007475075392110975</v>
       </c>
       <c r="T16">
-        <v>0.006475826836116335</v>
+        <v>0.007475075392110974</v>
       </c>
     </row>
     <row r="17" spans="1:20">
@@ -1461,52 +1461,52 @@
         <v>23</v>
       </c>
       <c r="E17">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F17">
         <v>1</v>
       </c>
       <c r="G17">
-        <v>3.40393272619235</v>
+        <v>3.525915333333334</v>
       </c>
       <c r="H17">
-        <v>3.40393272619235</v>
+        <v>10.577746</v>
       </c>
       <c r="I17">
-        <v>0.03964550763297121</v>
+        <v>0.04042593123510095</v>
       </c>
       <c r="J17">
-        <v>0.03964550763297121</v>
+        <v>0.04042593123510094</v>
       </c>
       <c r="K17">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L17">
         <v>1</v>
       </c>
       <c r="M17">
-        <v>3.45142943738572</v>
+        <v>8.223696</v>
       </c>
       <c r="N17">
-        <v>3.45142943738572</v>
+        <v>24.671088</v>
       </c>
       <c r="O17">
-        <v>0.01505169477855673</v>
+        <v>0.0332702797409786</v>
       </c>
       <c r="P17">
-        <v>0.01505169477855673</v>
+        <v>0.0332702797409786</v>
       </c>
       <c r="Q17">
-        <v>11.7484336140609</v>
+        <v>28.99605582307201</v>
       </c>
       <c r="R17">
-        <v>11.7484336140609</v>
+        <v>260.964502407648</v>
       </c>
       <c r="S17">
-        <v>0.0005967320802324236</v>
+        <v>0.001344982040981373</v>
       </c>
       <c r="T17">
-        <v>0.0005967320802324236</v>
+        <v>0.001344982040981373</v>
       </c>
     </row>
   </sheetData>
